--- a/data/dts/VBZ_data.xlsx
+++ b/data/dts/VBZ_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="enzyme" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
